--- a/Shared Files/TASK_CALENDAR.xlsx
+++ b/Shared Files/TASK_CALENDAR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.painter\Desktop\swole_team_6\Shared Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshx_000\Documents\swole_team_6\Shared Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve"> Week 1</t>
   </si>
@@ -77,18 +77,12 @@
     <t>using the binary map</t>
   </si>
   <si>
-    <t>Finalize tutorial</t>
-  </si>
-  <si>
     <t>Technical Design Guide</t>
   </si>
   <si>
     <t>Design Guide</t>
   </si>
   <si>
-    <t>Start collecting sounds to use, look into FMOD</t>
-  </si>
-  <si>
     <t>Audio Guide</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
     <t>Finalize basic editor</t>
   </si>
   <si>
-    <t>Impliment sound system, finalize all event systems</t>
-  </si>
-  <si>
     <t>Custom events, Serialization</t>
   </si>
   <si>
@@ -111,6 +102,24 @@
   </si>
   <si>
     <t xml:space="preserve">Tutorial: finish with 2 to 3 more segments </t>
+  </si>
+  <si>
+    <t>Start collecting sounds to use</t>
+  </si>
+  <si>
+    <t>Finalize tutorial, work on level design</t>
+  </si>
+  <si>
+    <t>finalize all event systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMOD Studio/FMOD sounds </t>
+  </si>
+  <si>
+    <t>Finalize sound system</t>
+  </si>
+  <si>
+    <t>Polish and refine last minute issues</t>
   </si>
 </sst>
 </file>
@@ -431,7 +440,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,30 +475,35 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -497,19 +511,22 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>11</v>
       </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
@@ -529,16 +546,19 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -546,7 +566,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Shared Files/TASK_CALENDAR.xlsx
+++ b/Shared Files/TASK_CALENDAR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshx_000\Documents\swole_team_6\Shared Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.painter\Desktop\swole_team_6\Shared Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve"> Week 1</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Start next level segment (map)</t>
   </si>
   <si>
-    <t>Editor: Scale, Rotate, Edit Values, and Delete</t>
-  </si>
-  <si>
     <t>Window: fullscreen on start, handle CTRL + Alt + DEL</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>Audio Guide</t>
   </si>
   <si>
-    <t>Help with editor and Lua scripts</t>
-  </si>
-  <si>
     <t>Finalize basic editor</t>
   </si>
   <si>
@@ -110,16 +104,19 @@
     <t>Finalize tutorial, work on level design</t>
   </si>
   <si>
-    <t>finalize all event systems</t>
-  </si>
-  <si>
     <t xml:space="preserve">FMOD Studio/FMOD sounds </t>
   </si>
   <si>
-    <t>Finalize sound system</t>
-  </si>
-  <si>
     <t>Polish and refine last minute issues</t>
+  </si>
+  <si>
+    <t>Editor: Camera, Reload, Terxture, Entities</t>
+  </si>
+  <si>
+    <t>finalize collision events and grounded</t>
+  </si>
+  <si>
+    <t>Zilch/JSON</t>
   </si>
 </sst>
 </file>
@@ -440,7 +437,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,35 +472,35 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -511,26 +508,23 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -538,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -546,27 +540,27 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Shared Files/TASK_CALENDAR.xlsx
+++ b/Shared Files/TASK_CALENDAR.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve"> Week 1</t>
   </si>
@@ -117,6 +117,42 @@
   </si>
   <si>
     <t>Zilch/JSON</t>
+  </si>
+  <si>
+    <t>Insert sound events for walking and</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> background music on start</t>
+  </si>
+  <si>
+    <t>Finish prototype segment: Level 1</t>
+  </si>
+  <si>
+    <t>Start working in engine</t>
+  </si>
+  <si>
+    <t>Start work in engine</t>
+  </si>
+  <si>
+    <t>find more sound assets</t>
+  </si>
+  <si>
+    <t>make UI assets (at least placeholder?)</t>
+  </si>
+  <si>
+    <t>Cheat Codes: Reload Level shortcut, Load Next Level</t>
+  </si>
+  <si>
+    <t>start Audio Guide</t>
+  </si>
+  <si>
+    <t>Start Art Guide</t>
+  </si>
+  <si>
+    <t>Art Guide</t>
+  </si>
+  <si>
+    <t>Particle Effects</t>
   </si>
 </sst>
 </file>
@@ -437,7 +473,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,32 +543,67 @@
       <c r="A6" t="s">
         <v>1</v>
       </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
       </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
       </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
+      <c r="B9" t="s">
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -556,6 +627,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>

--- a/Shared Files/TASK_CALENDAR.xlsx
+++ b/Shared Files/TASK_CALENDAR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.painter\Desktop\swole_team_6\Shared Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c.lavelle\Desktop\Repo\Shared Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -92,9 +92,6 @@
     <t xml:space="preserve">Finalize raycasting, finalize </t>
   </si>
   <si>
-    <t>Editor, Reactive</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tutorial: finish with 2 to 3 more segments </t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>Polish and refine last minute issues</t>
   </si>
   <si>
-    <t>Editor: Camera, Reload, Terxture, Entities</t>
-  </si>
-  <si>
     <t>finalize collision events and grounded</t>
   </si>
   <si>
@@ -153,6 +147,12 @@
   </si>
   <si>
     <t>Particle Effects</t>
+  </si>
+  <si>
+    <t>Editor, Reactive. DONE</t>
+  </si>
+  <si>
+    <t>Editor: Camera DONE, Reload DONE, Terxture, Entities</t>
   </si>
 </sst>
 </file>
@@ -508,13 +508,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -544,58 +544,58 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -611,7 +611,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>

--- a/Shared Files/TASK_CALENDAR.xlsx
+++ b/Shared Files/TASK_CALENDAR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c.lavelle\Desktop\Repo\Shared Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.painter\Desktop\swole_team_6\Shared Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve"> Week 1</t>
   </si>
@@ -146,13 +146,28 @@
     <t>Art Guide</t>
   </si>
   <si>
-    <t>Particle Effects</t>
-  </si>
-  <si>
     <t>Editor, Reactive. DONE</t>
   </si>
   <si>
     <t>Editor: Camera DONE, Reload DONE, Terxture, Entities</t>
+  </si>
+  <si>
+    <t>separate rigidbody and boxcollider</t>
+  </si>
+  <si>
+    <t>finalize tutorial in engine</t>
+  </si>
+  <si>
+    <t>finalize level 1 in engine, menus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR's: Resolution on start, minimize, fullscreen, </t>
+  </si>
+  <si>
+    <t>editor fixes, work on menus</t>
+  </si>
+  <si>
+    <t>Uninstaller, fix collision event issue, pausing</t>
   </si>
 </sst>
 </file>
@@ -470,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +529,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
@@ -595,45 +610,64 @@
         <v>38</v>
       </c>
       <c r="D9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E16" t="s">
         <v>12</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D17" t="s">
         <v>13</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E17" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Shared Files/TASK_CALENDAR.xlsx
+++ b/Shared Files/TASK_CALENDAR.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t xml:space="preserve"> Week 1</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Week 3</t>
   </si>
   <si>
-    <t>Week 4</t>
-  </si>
-  <si>
     <t>Josh</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>Cheat Codes: god mode, skip to win, skip level</t>
   </si>
   <si>
-    <t>Self-Play</t>
-  </si>
-  <si>
     <t>Uninstall from start menu</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>Design Guide</t>
   </si>
   <si>
-    <t>Audio Guide</t>
-  </si>
-  <si>
     <t>Finalize basic editor</t>
   </si>
   <si>
@@ -152,22 +143,25 @@
     <t>Editor: Camera DONE, Reload DONE, Terxture, Entities</t>
   </si>
   <si>
-    <t>separate rigidbody and boxcollider</t>
-  </si>
-  <si>
-    <t>finalize tutorial in engine</t>
-  </si>
-  <si>
-    <t>finalize level 1 in engine, menus</t>
-  </si>
-  <si>
     <t xml:space="preserve">TCR's: Resolution on start, minimize, fullscreen, </t>
   </si>
   <si>
-    <t>editor fixes, work on menus</t>
-  </si>
-  <si>
-    <t>Uninstaller, fix collision event issue, pausing</t>
+    <t>Implement AI and HUD</t>
+  </si>
+  <si>
+    <t>Implement tutorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalize zilch/work on polishing any issues </t>
+  </si>
+  <si>
+    <t>Work on your guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">editor fixes, work on menus, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement an auto play </t>
   </si>
 </sst>
 </file>
@@ -488,7 +482,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,19 +497,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -523,35 +517,35 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -559,116 +553,119 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>46</v>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
